--- a/generated_sheets/python_CTS_example.xlsx
+++ b/generated_sheets/python_CTS_example.xlsx
@@ -510,7 +510,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:XFD50"/>
+  <dimension ref="A1:XFD53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18711,64 +18711,160 @@
       <c r="T50" s="12" t="n"/>
       <c r="U50" s="12" t="n"/>
     </row>
+    <row r="51">
+      <c r="A51" s="13" t="n"/>
+      <c r="B51" s="13" t="n"/>
+      <c r="C51" s="13" t="n"/>
+      <c r="D51" s="13" t="n"/>
+      <c r="E51" s="14" t="n"/>
+      <c r="F51" s="15" t="n"/>
+      <c r="G51" s="14" t="n"/>
+      <c r="H51" s="14" t="n"/>
+      <c r="I51" s="13" t="n"/>
+      <c r="J51" s="13" t="n"/>
+      <c r="K51" s="16" t="n"/>
+      <c r="L51" s="16">
+        <f>SUM(M51,P51,Q51,S51)</f>
+        <v/>
+      </c>
+      <c r="M51" s="17" t="n"/>
+      <c r="N51" s="16">
+        <f>FLOOR($M51*0.17,0.01)</f>
+        <v/>
+      </c>
+      <c r="O51" s="16">
+        <f>FLOOR($M51*0.83,0.01)</f>
+        <v/>
+      </c>
+      <c r="P51" s="17" t="n"/>
+      <c r="Q51" s="16" t="n"/>
+      <c r="R51" s="13" t="n"/>
+      <c r="S51" s="17" t="n"/>
+      <c r="T51" s="18" t="n"/>
+      <c r="U51" s="18" t="n"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="7" t="n"/>
+      <c r="B52" s="7" t="n"/>
+      <c r="C52" s="7" t="n"/>
+      <c r="D52" s="7" t="n"/>
+      <c r="E52" s="8" t="n"/>
+      <c r="F52" s="9" t="n"/>
+      <c r="G52" s="8" t="n"/>
+      <c r="H52" s="8" t="n"/>
+      <c r="I52" s="7" t="n"/>
+      <c r="J52" s="7" t="n"/>
+      <c r="K52" s="10" t="n"/>
+      <c r="L52" s="10">
+        <f>SUM(M52,P52,Q52,S52)</f>
+        <v/>
+      </c>
+      <c r="M52" s="11" t="n"/>
+      <c r="N52" s="10">
+        <f>FLOOR($M52*0.17,0.01)</f>
+        <v/>
+      </c>
+      <c r="O52" s="10">
+        <f>FLOOR($M52*0.83,0.01)</f>
+        <v/>
+      </c>
+      <c r="P52" s="11" t="n"/>
+      <c r="Q52" s="10" t="n"/>
+      <c r="R52" s="7" t="n"/>
+      <c r="S52" s="11" t="n"/>
+      <c r="T52" s="12" t="n"/>
+      <c r="U52" s="12" t="n"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="13" t="n"/>
+      <c r="B53" s="13" t="n"/>
+      <c r="C53" s="13" t="n"/>
+      <c r="D53" s="13" t="n"/>
+      <c r="E53" s="14" t="n"/>
+      <c r="F53" s="15" t="n"/>
+      <c r="G53" s="14" t="n"/>
+      <c r="H53" s="14" t="n"/>
+      <c r="I53" s="13" t="n"/>
+      <c r="J53" s="13" t="n"/>
+      <c r="K53" s="16" t="n"/>
+      <c r="L53" s="16">
+        <f>SUM(M53,P53,Q53,S53)</f>
+        <v/>
+      </c>
+      <c r="M53" s="17" t="n"/>
+      <c r="N53" s="16">
+        <f>FLOOR($M53*0.17,0.01)</f>
+        <v/>
+      </c>
+      <c r="O53" s="16">
+        <f>FLOOR($M53*0.83,0.01)</f>
+        <v/>
+      </c>
+      <c r="P53" s="17" t="n"/>
+      <c r="Q53" s="16" t="n"/>
+      <c r="R53" s="13" t="n"/>
+      <c r="S53" s="17" t="n"/>
+      <c r="T53" s="18" t="n"/>
+      <c r="U53" s="18" t="n"/>
+    </row>
   </sheetData>
   <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1" password="CBEB"/>
-  <conditionalFormatting sqref="A2:A50">
+  <conditionalFormatting sqref="A2:A53">
     <cfRule type="expression" priority="1" dxfId="0" stopIfTrue="1">
       <formula>=AND(ISBLANK(A2),OR(NOT(ISBLANK(B2)),NOT(ISBLANK(C2))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F50">
+  <conditionalFormatting sqref="F2:F53">
     <cfRule type="expression" priority="2" dxfId="0" stopIfTrue="1">
       <formula>=AND(NOT(AND(LEN(F2)=12,ISNUMBER(VALUE(LEFT(F2,2))),MID(F2,3,1)="-",ISNUMBER(VALUE(MID(F2,4,6))),MID(F2,10,1)="-",ISNUMBER(VALUE(RIGHT(F2,2))))),NOT(AND(LEN(F2)=10,ISNUMBER(VALUE(F2)))),AND(ISBLANK(F2),NOT(ISBLANK(G2))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J50">
+  <conditionalFormatting sqref="J2:J53">
     <cfRule type="expression" priority="3" dxfId="0" stopIfTrue="1">
       <formula>=AND(NOT(LEN(J2)=2),NOT(ISBLANK(J2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M2:M50">
+  <conditionalFormatting sqref="M2:M53">
     <cfRule type="expression" priority="4" dxfId="0" stopIfTrue="1">
       <formula>=OR(NOT(AND(IFERROR(M2&lt;=$K2,FALSE),IFERROR($M2+$P2+$Q2+$S2&lt;=$K2,FALSE))),AND(NOT(ISBLANK(M2)),NOT(ISNUMBER(M2))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P2:P50">
+  <conditionalFormatting sqref="P2:P53">
     <cfRule type="expression" priority="5" dxfId="0" stopIfTrue="1">
       <formula>=OR(NOT(AND(IFERROR(M2&lt;=$K2,FALSE),IFERROR($M2+$P2+$Q2+$S2&lt;=$K2,FALSE))),AND(NOT(ISBLANK(M2)),NOT(ISNUMBER(M2))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S2:S50">
+  <conditionalFormatting sqref="S2:S53">
     <cfRule type="expression" priority="6" dxfId="0" stopIfTrue="1">
       <formula>=OR(NOT(AND(IFERROR(M2&lt;=$K2,FALSE),IFERROR($M2+$P2+$Q2+$S2&lt;=$K2,FALSE))),AND(NOT(ISBLANK(M2)),NOT(ISNUMBER(M2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="9">
-    <dataValidation sqref="F2:F50" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" error="Input must be in valid medicaid id format (**-******-**)" type="custom">
+    <dataValidation sqref="F2:F53" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" error="Input must be in valid medicaid id format (**-******-**)" type="custom">
       <formula1>=OR(AND(LEN(F2)=12,ISNUMBER(VALUE(LEFT(F2,2))),MID(F2,3,1)="-",ISNUMBER(VALUE(MID(F2,4,6))),MID(F2,10,1)="-",ISNUMBER(VALUE(RIGHT(F2,2)))),AND(LEN(F2)=10,NOT(VALUE(LEFT(F2))=0),ISNUMBER(VALUE(F2))))</formula1>
     </dataValidation>
-    <dataValidation sqref="E2:E50" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" error="Invalid Date Format - Enter date as MM/DD/YYYY" type="custom">
+    <dataValidation sqref="E2:E53" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" error="Invalid Date Format - Enter date as MM/DD/YYYY" type="custom">
       <formula1>=AND(ISNUMBER(E2), E2 &gt; DATE(1900, 1, 1))</formula1>
     </dataValidation>
-    <dataValidation sqref="G2:G50" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" error="Invalid Date Format - Enter date as MM/DD/YYYY" type="custom">
+    <dataValidation sqref="G2:G53" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" error="Invalid Date Format - Enter date as MM/DD/YYYY" type="custom">
       <formula1>=AND(ISNUMBER(G2), G2 &gt; DATE(1900, 1, 1))</formula1>
     </dataValidation>
-    <dataValidation sqref="H2:H50" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" error="Invalid Date Format - Enter date as MM/DD/YYYY" type="custom">
+    <dataValidation sqref="H2:H53" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" error="Invalid Date Format - Enter date as MM/DD/YYYY" type="custom">
       <formula1>=AND(ISNUMBER(H2), H2 &gt; DATE(1900, 1, 1))</formula1>
     </dataValidation>
-    <dataValidation sqref="I2:I50" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" error="Invalid entry: only enter one service code per record" type="custom">
+    <dataValidation sqref="I2:I53" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" error="Invalid entry: only enter one service code per record" type="custom">
       <formula1>=AND(IF(ISERROR(FIND(",",I2,1)),TRUE,FALSE),IF(ISERROR(FIND("-",I2,1)),TRUE,FALSE),IF(ISERROR(FIND(";",I2,1)),TRUE,FALSE),IF(ISERROR(FIND(CHAR(10),I2,1)),TRUE,FALSE))</formula1>
     </dataValidation>
-    <dataValidation sqref="J2:J50" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" error="Invalid entry: enter a single modifier two characters long" type="custom">
+    <dataValidation sqref="J2:J53" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" error="Invalid entry: enter a single modifier two characters long" type="custom">
       <formula1>=AND(LEN(J2)=2,IF(ISERROR(FIND(",",J2,1)),TRUE,FALSE),IF(ISERROR(FIND("-",J2,1)),TRUE,FALSE),IF(ISERROR(FIND(";",J2,1)),TRUE,FALSE),IF(ISERROR(FIND(CHAR(10),J2,1)),TRUE,FALSE))</formula1>
     </dataValidation>
-    <dataValidation sqref="M2:M50" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" error="Invalid entry: amount due must not exceed billed amount" type="custom">
+    <dataValidation sqref="M2:M53" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" error="Invalid entry: amount due must not exceed billed amount" type="custom">
       <formula1>=AND(ISNUMBER(M2), M2 &gt;=0, M2 &lt;= $K2)</formula1>
     </dataValidation>
-    <dataValidation sqref="P2:P50" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" error="Invalid entry: amount due must not exceed billed amount" type="custom">
+    <dataValidation sqref="P2:P53" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" error="Invalid entry: amount due must not exceed billed amount" type="custom">
       <formula1>=AND(ISNUMBER(P2), P2 &gt;=0, P2 &lt;= $K2)</formula1>
     </dataValidation>
-    <dataValidation sqref="S2:S50" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" error="Invalid entry: amount due must not exceed billed amount" type="custom">
+    <dataValidation sqref="S2:S53" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" error="Invalid entry: amount due must not exceed billed amount" type="custom">
       <formula1>=AND(ISNUMBER(S2), S2 &gt;=0, S2 &lt;= $K2)</formula1>
     </dataValidation>
   </dataValidations>
